--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Toronto_Raptors__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Toronto_Raptors__.xlsx
@@ -588,79 +588,79 @@
         <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>876</v>
+        <v>916</v>
       </c>
       <c r="G2" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H2" t="n">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I2" t="n">
-        <v>0.442</v>
+        <v>0.434</v>
       </c>
       <c r="J2" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K2" t="n">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
         <v>0.391</v>
       </c>
       <c r="M2" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N2" t="n">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O2" t="n">
-        <v>0.492</v>
+        <v>0.479</v>
       </c>
       <c r="P2" t="n">
-        <v>0.539</v>
+        <v>0.533</v>
       </c>
       <c r="Q2" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R2" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S2" t="n">
-        <v>0.866</v>
+        <v>0.845</v>
       </c>
       <c r="T2" t="n">
         <v>17</v>
       </c>
       <c r="U2" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="V2" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="W2" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="n">
         <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>456</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
@@ -676,43 +676,43 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="G3" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H3" t="n">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="I3" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L3" t="n">
-        <v>0.357</v>
+        <v>0.347</v>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N3" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="O3" t="n">
-        <v>0.513</v>
+        <v>0.516</v>
       </c>
       <c r="P3" t="n">
-        <v>0.516</v>
+        <v>0.517</v>
       </c>
       <c r="Q3" t="n">
         <v>47</v>
@@ -724,31 +724,31 @@
         <v>0.723</v>
       </c>
       <c r="T3" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U3" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="V3" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="W3" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="n">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -764,43 +764,43 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E4" t="n">
         <v>22</v>
       </c>
-      <c r="E4" t="n">
-        <v>21</v>
-      </c>
       <c r="F4" t="n">
-        <v>753</v>
+        <v>792</v>
       </c>
       <c r="G4" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H4" t="n">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="I4" t="n">
-        <v>0.415</v>
+        <v>0.424</v>
       </c>
       <c r="J4" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K4" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L4" t="n">
-        <v>0.363</v>
+        <v>0.37</v>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N4" t="n">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="O4" t="n">
-        <v>0.466</v>
+        <v>0.476</v>
       </c>
       <c r="P4" t="n">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="Q4" t="n">
         <v>39</v>
@@ -815,16 +815,16 @@
         <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V4" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="W4" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -833,10 +833,10 @@
         <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="n">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5">
@@ -1021,86 +1021,86 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="H7" t="n">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="I7" t="n">
-        <v>0.434</v>
+        <v>0.481</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L7" t="n">
-        <v>0.333</v>
+        <v>0.36</v>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="N7" t="n">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.519</v>
       </c>
       <c r="P7" t="n">
-        <v>0.528</v>
+        <v>0.524</v>
       </c>
       <c r="Q7" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="R7" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="S7" t="n">
-        <v>0.909</v>
+        <v>0.742</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="U7" t="n">
+        <v>75</v>
+      </c>
+      <c r="V7" t="n">
+        <v>103</v>
+      </c>
+      <c r="W7" t="n">
+        <v>53</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA7" t="n">
         <v>47</v>
       </c>
-      <c r="V7" t="n">
-        <v>63</v>
-      </c>
-      <c r="W7" t="n">
-        <v>27</v>
-      </c>
-      <c r="X7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>31</v>
-      </c>
       <c r="AB7" t="n">
-        <v>171</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8">
@@ -1109,86 +1109,86 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>455</v>
+      </c>
+      <c r="G8" t="n">
+        <v>62</v>
+      </c>
+      <c r="H8" t="n">
+        <v>146</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="J8" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13</v>
-      </c>
-      <c r="F8" t="n">
-        <v>434</v>
-      </c>
-      <c r="G8" t="n">
-        <v>92</v>
-      </c>
-      <c r="H8" t="n">
-        <v>197</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>83</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="M8" t="n">
+        <v>35</v>
+      </c>
+      <c r="N8" t="n">
+        <v>63</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>20</v>
+      </c>
+      <c r="R8" t="n">
+        <v>22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="T8" t="n">
         <v>16</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
         <v>48</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>149</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>48</v>
-      </c>
-      <c r="R8" t="n">
-        <v>63</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="T8" t="n">
-        <v>25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>67</v>
-      </c>
       <c r="V8" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="W8" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="n">
-        <v>248</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
@@ -1292,43 +1292,43 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G10" t="n">
         <v>42</v>
       </c>
       <c r="H10" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" t="n">
-        <v>0.477</v>
+        <v>0.462</v>
       </c>
       <c r="J10" t="n">
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L10" t="n">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="M10" t="n">
         <v>36</v>
       </c>
       <c r="N10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O10" t="n">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="P10" t="n">
-        <v>0.511</v>
+        <v>0.495</v>
       </c>
       <c r="Q10" t="n">
         <v>18</v>
@@ -1340,28 +1340,28 @@
         <v>0.75</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V10" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
         <v>108</v>
@@ -1380,61 +1380,61 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="G11" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H11" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I11" t="n">
-        <v>0.397</v>
+        <v>0.4</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L11" t="n">
-        <v>0.185</v>
+        <v>0.179</v>
       </c>
       <c r="M11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N11" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O11" t="n">
-        <v>0.545</v>
+        <v>0.548</v>
       </c>
       <c r="P11" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="Q11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R11" t="n">
+        <v>38</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="T11" t="n">
         <v>35</v>
       </c>
-      <c r="S11" t="n">
-        <v>0.6860000000000001</v>
-      </c>
-      <c r="T11" t="n">
-        <v>30</v>
-      </c>
       <c r="U11" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V11" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
@@ -1443,16 +1443,16 @@
         <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB11" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
@@ -1549,86 +1549,86 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Goran Dragić</t>
+          <t>Yuta Watanabe</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>103</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
+        <v>16</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
         <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>90</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13</v>
-      </c>
-      <c r="H13" t="n">
-        <v>34</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="M13" t="n">
-        <v>9</v>
-      </c>
-      <c r="N13" t="n">
-        <v>20</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" t="n">
-        <v>10</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>12</v>
-      </c>
-      <c r="V13" t="n">
-        <v>14</v>
-      </c>
-      <c r="W13" t="n">
-        <v>9</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1637,77 +1637,77 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yuta Watanabe</t>
+          <t>Goran Dragić</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G14" t="n">
+        <v>13</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="Q14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="n">
-        <v>26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>17</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
       <c r="R14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V14" t="n">
         <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="AB14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -1732,22 +1732,22 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>0.333</v>
+        <v>0.455</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1759,34 +1759,34 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="P15" t="n">
-        <v>0.333</v>
+        <v>0.455</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1820,52 +1820,52 @@
         <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="O16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1877,22 +1877,22 @@
         <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
         <v>4</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2062,77 +2062,77 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>5760</v>
+        <v>6000</v>
       </c>
       <c r="G19" t="n">
-        <v>947</v>
+        <v>989</v>
       </c>
       <c r="H19" t="n">
-        <v>2177</v>
+        <v>2270</v>
       </c>
       <c r="I19" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="J19" t="n">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K19" t="n">
-        <v>787</v>
+        <v>828</v>
       </c>
       <c r="L19" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="M19" t="n">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="N19" t="n">
-        <v>1390</v>
+        <v>1442</v>
       </c>
       <c r="O19" t="n">
-        <v>0.488</v>
+        <v>0.49</v>
       </c>
       <c r="P19" t="n">
-        <v>0.497</v>
+        <v>0.498</v>
       </c>
       <c r="Q19" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="R19" t="n">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="S19" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="T19" t="n">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="U19" t="n">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="V19" t="n">
-        <v>1067</v>
+        <v>1113</v>
       </c>
       <c r="W19" t="n">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="X19" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Y19" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Z19" t="n">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="AA19" t="n">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="AB19" t="n">
-        <v>2514</v>
+        <v>2623</v>
       </c>
     </row>
   </sheetData>
